--- a/story/主线剧情/main/level_spst_08-04.xlsx
+++ b/story/主线剧情/main/level_spst_08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="354">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="疲惫的罗德岛干员"] 喂，情况怎么样？
 </t>
   </si>
@@ -719,6 +725,706 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ベテランオペレーター"] さっきの有給休暇の話なんだが……荷物持ちは足りてるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Hey. What's the situation?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Not too good. There's only a couple of devils left on the lower level...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] But they're all battle-hardened mercenaries, and horrible at that. Give them a single screw, and they'd come up with a hundred ways to kill you with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] In terms of combat ability, we're about even. In terms of numbers, we've only got half theirs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Uh, do you have a but? I'm gonna lose all the feeling in my legs...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Yeah. "But" the mercs are having some interteam strife. At least the bunch outside are. The ones below us right now, I'm not too sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] You know that's not good news, right? Ugh, ow... that guy just now was a ruthless bastard...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] If you've done emergency treatment, you're good. Think of something else for now, distract yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...It's gotten hotter and hotter up above. Ever since just now, the action up there's gotten a little scary... and, uh, well, how do I put it? Makes it a little hard to breathe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] I said distract yourself, not think about it all!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...Amiya. Amiya's alright, isn't she? And that Lungmen officer. Uh, I only met her once... but when I think about how they're dealing with... with... uh, what was it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Give it a rest, you're starting to talk in tongues. Actually, you've lost plenty of blood—hold on, we've got news.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Voice"] It's me. I'm nearly at ground level—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ...What's the situation? The enemy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Voice"] Stroke of good luck. The Arts explosion just now at the top of the tower was like a volcano erupting. Engulfed the floor we were holding. We dispatched a few sentries in all the chaos, and the rest of them had to evacuate down to open ground—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] I thought they'd be defending this place to the death...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Voice"] Maybe they all had a premonition of sorts. They all know, what's going on up there is beyond any "tactical" level of foresight now—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Wait... what's going on! ?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Wha—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Grab on to me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Wait... the—the fire's spreading?! What the hell's even flammable here?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] High heat... It's just like the intel said, this is Talulah's doing...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Quit standing there! What do we do now?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Oh—let's go this way, join up with everyone else! Wait up, is your leg okay now?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Distracting myself! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Confirm all comms! For the time being, no casualties! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Calm your hustle. Those mercs haven't gone far. They're confirming the situation, prying for opportunities...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Command tower got caught up in a sudden explosion at the top, and now it's fallen into... momentary peace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] What part of this screams peace to you?! A—Amiya's group are okay, right? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Mm... well, with that going on at the tower top, I'd say we're practically the picture of peace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] F... finally—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Don't drop your guard, we're still—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] W—why'd you go mute? Hello—?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] What's so interesting about the sky? Is something going on at the tower...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...Wait, i—is that an... orb of light? A ball... a ball of fire? A halo? What IS that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...Arts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Ah! I've been making a record. Since the start, that first huge sound, the flames and heated airstreams have burst through the building's dome. From beneath the tower, to the naked eye, it looks like...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like the afterglow of the setting sun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like the death of Infected as successive as the waves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like rage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like this city placed in ruin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...I don't think I'm particularly perceptive compared to the rest of you, but I know more or less what you want to say here, really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] That'd be the leader of Reunion's…
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Heat and flame.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] But heat and flame... shouldn't be things so fearful.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Mm. That ball of light. That's one... two people's. No, perhaps even more than that, even more rage...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] So that's... Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] It isn't. Or put another way, it's not just her. Not by far. Everyone knows the leader of Reunion as the intel described her, but I can't draw a line between that young little dragon and what I'm seeing now at all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Just what... just what happened up there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] ...I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Is there anyone else in the command tower?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Yes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Then we need to go help them! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Wait! Keep your head down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] —Enemies have left the command tower! Go find them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Block this place off. Don't give them the chance to seek aid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Wh—what do we do now?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Maybe we should go back and help Amiya—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] —No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] Only Amiya... Only Amiya can do this. She can. I'm sure of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] I believe in her. That's the only reason I have for standing here now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] And...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] And she promised me. On my next paid leave, she'd tag along with me to hit the streets... and no leader's allowed to eat their words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ...Okay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Then until Amiya comes back clutching victory, we can't relinquish the control tower. At the very least, we hold on until Dr. Kal'tsit arrives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] We—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] Wh—wait, something's cutting the sky apart! Uh, that—whatever that is!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] —Did you hear that! ? It happened again!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ...A sword? Right, that Lungmen officer's a sword-wielder, isn't she...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] C-Could a sword do this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] ...I'll hold the mercs off outside the control tower. You guys, back in. Rescue the remaining people. Secure an evacuation route that hasn't been destroyed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] How are you gonna hold alone against that many Sarkaz?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] I'll go with her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] You guys, go back in now. Move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] ...Rhodes doesn't have many left. Tell the other teams to haul the net in. We'll be going this way...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Crash their defensive line ASAP. Their deaths will be our greatest bargaining chips.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Move!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tired Rhodes Island Operator"] ...Alright!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Don’t you push it now! They've got a lot of people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] ...It's been forever. Us two, fighting side by side, eyeing for a chance to ambush the enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The two battle-hardened Operators hold tight their weapons in mutual rapport, and the Sarkazs’ press on towards them menacingly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither side takes their eyes off the other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] ...For sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] So about your vacation. You two still need a bag-carrier?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 상황은 어때?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 별로 좋지 않아. 아래층에 남은 마족 놈들이 얼마 안 되긴 하지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 그래 봬도 산전수전 다 겪은 노련한 놈들이야. 나사 하나만 있어도 싸울 방법을 수백 가지는 생각해 내고도 남을 짜증 나는 것들이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 작전 능력은 거기서 거기지만, 머릿수는 우리가 놈들의 절반밖에 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 하아…… 그래도 "하지만!" 뭐 이런 대사는 없는 거야? 다리에 감각이 없어지려고 하는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 있어, '하지만' 용병 내부에서 분열이 일어난 모양이다. 적어도 바깥에 있는 일부는 그런 것 같아, 그런데 우리 건물 아래에 있는 저 무리는 어떤지 잘 모르겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 그건 좋은 소식이 아니잖아, 윽…… 아까 그 녀석 손 한번 맵네……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 응급 처치해준 것만으로도 다행인 줄 알아. 고통을 덜고 싶으면 다른 일을 떠올려 봐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……위쪽이 점점 뜨거워지는 것 같아, 아까부터 움직임이 심상치 않은 게……뭐랄까, 숨이 좀 막히는 것도 같고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 다른 일을 떠올리라고 했지, 엉뚱한 생각하라는 게 아니었잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 아미야 씨…… 아미야 씨는 괜찮을까? 그리고 그 용문의 경관도…… 한 번밖엔 보지 않았지만 두 사람이 그러니까 싸우고 있다고 생각하면…… 싸우는 건…… 누구와 싸우는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 헛소리하는 걸 보니 피를 많이 흘린 게 분명해…… 잠깐, 통신이 왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 목소리"] 나다, 곧 지상에 도착한다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] ……무슨 일이야? 적은?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 목소리"] 운이 좋았어, 탑 꼭대기에서 폭발한 아츠가 화산이 폭발한 것처럼 우리가 주둔하고 있던 층을 삼켜 버렸거든. 혼란을 틈타 보초병을 몇 놈 처치한 뒤에 아래층 공터로 철수할 수밖에 없었다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 놈들이 죽기 살기로 여기를 지킬 줄 알았는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 목소리"] 아마도 다들 눈치챘겠지, 위에서 벌어지는 일이 '전술'의 범위를 넘어섰다고 말이야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 잠깐…… 무슨 일이야!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 으아아악~!!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 꽉 잡아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 마, 말도 안 돼…… 부, 불이 번지고 있잖아?! 여기에 인화성 물질이라도 있는 거냐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 뜨거워…… 정보에서 본 것과 같아. 이건 탈룰라의 수법이야……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 멍청히 서 있지 말고 어떻게 해야 하는지 생각해 내!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 윽…… 이쪽으로 가서 다른 사람이랑 합류한다! 잠깐, 다리는 괜찮은 거야?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 시선을 분산시켜!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 모든 통신 확인, 사망자는 아직 없다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 진정해. 놈들은 근처에 있을 거야. 사태를 보며 기회를 노리고 있겠지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 탑 꼭대기가 갑자기 폭발하면서 사령탑이…… 일시적으로 잠잠해졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 이걸 보고도 잠잠하다는 말이 나와?! 아, 아미야는? 아미야 일행은 무사한 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 흠…… 탑 꼭대기가 이래서 괜찮다고 생각한 건데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 어, 어쨌든……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 긴장 풀지 마, 우리에겐 아직……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 뭐, 뭐야? 왜 다들 입을 다문 건데? 이봐……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 하늘은 왜 보는 거야? 탑 꼭대기에 뭐가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……잠깐만! 저, 저…… 빛은? 불…… 불덩이?? 아우라라고 해야 하나? 저게 대체 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 아츠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……아츠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 아! 적어놔야겠다. 첫 굉음을 시작으로 화염과 고온 기류가 건물의 지붕을 덮쳤다. 탑 아래에서 육안으로 관측했을 때의 모습은 마치……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 줄기 석양,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">마지막을 두려워하지 않는 감염자의 죽음,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거대한 분노,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 당장이라도 무너질 것 같은 이 도시와 같았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……내가 너희보다는 덜 감성적이라고 생각했는데, 네가 무슨 말을 하려는지 어느 정도는 알 것 같아. 거짓말 하나도 안 보태고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 저게 바로 리유니온 지휘관의……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 열기와 불이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 하지만 열기와 불은 그렇게 무서운 존재가 아닌데 어째서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 그 빛 덩어리, 그건 아마도 한 사람…… 두 사람, 아니 그보다 훨씬 많은 사람의 분노일 거다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 그게 바로…… 탈룰라의 힘인가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 아니, 아마 그보다 훨씬 강할 거다. 리유니온 지휘관에 관한 정보는 다들 받아봤겠지만 지금 내가 본 것과 저 젊은 용과는 정말 매치가 안 되는군……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 대체…… 저 위에서는 무슨 일이 벌어지고 있는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] ……글쎄.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 아미야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 사령탑 안에 다른 사람은 없지!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 아냐, 있어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 우리가 도와야 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 잠깐! 머리 숙여!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] ……적들이 사령탑을 떠났다! 녀석들을 찾아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 구조 요청을 하지 못하게 여길 봉쇄해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 이, 이제 어쩌지!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 돌아가서 아미야 씨를 도와야 할지도 모르겠군……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 아니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 아미야 씨…… 아미야 씨만 할 수 있는 일이야. 그녀라면 할 수 있을 거야, 반드시.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 난 아미야 씨를 믿는다. 그래서 여기에 서 있을 수 있는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 그리고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] 그리고 유급휴가 때 같이 놀러 가 주기로 나랑 약속했다…… 지휘관이라면 약속을 지켜야지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] ……좋아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 그렇다면 아미야가 무사히 돌아오기 전까지 사령탑을 반드시 사수해야 해. 적어도 닥터 켈시가 도착하기 전까지는.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 우린……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 헉…… 저게 뭐지? 뭔가 하늘을 갈랐어…… 저, 저건!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……너희도 들었어?! 방금 또 소리가 났다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] ……검인가? 그래, 그 용문 경관이 확실히 검을 휘두르긴 했어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 저, 저게 검에서 나는 소리라고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] ……사령탑 밖의 용병은 내가 처리할 테니 너희들은 탑으로 돌아가서 남은 사람들을 데리고 파괴되지 않은 퇴각로를 확보해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] 혼자서 저 많은 살카즈를 상대하겠다고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 나도 간다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 당장 돌아가라, 어서.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] ……로도스 아일랜드 놈들은 고작 몇 명에 불과해. 다른 팀에 작전을 마무리하라고 전해. 우린 여기에서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 최대한 빠르게 방어선을 무너뜨린다. 놈들의 죽음은 우리에게는 최고의 패가 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 서둘러!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="피곤한 로도스 아일랜드 오퍼레이터"] ……오케이!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="다급한 로도스 아일랜드 오퍼레이터"] 무리할 것 없어, 놈들의 머릿수가 우리보다 많으니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="침착한 로도스 아일랜드 오퍼레이터"] ……오랜만이군, 둘이서 함께 싸우는 건.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노련한 두 오퍼레이터는 약속이나 한 듯 무기를 들고 엄청난 살기를 내뿜는 살카즈를 향해 나아갔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">두 사람은 시선을 돌리지 않은 채 앞쪽의 상대를 뚫어지게 쳐다봤다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] ……그렇군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="노련한 로도스 아일랜드 오퍼레이터"] 그 유급휴가 얘기 말인데, 너희 둘 혹시, 짐 들어줄 사람 필요하지 않아?
 </t>
   </si>
 </sst>
@@ -1077,722 +1783,1256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
